--- a/va_facility_data_2025-02-20/Staunton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Staunton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Staunton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Staunton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R277e1b4d1fb94d55bf99e753d243da64"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8189515d14024d8a932aae354d8fe2d1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5b426d8f336346ac8ac570ac24c19fd2"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R62bc7ff3d0874614b11e0b184bad0c0c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd31a53cf6f074e148708fde1a923e9ad"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf25a013366b949968f4142ccce2b7cbd"/>
   </x:sheets>
 </x:workbook>
 </file>
